--- a/medicine/Psychotrope/Bottle_Shock/Bottle_Shock.xlsx
+++ b/medicine/Psychotrope/Bottle_Shock/Bottle_Shock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bottle Shock, ou Dégustation choc au Québec, est une comédie dramatique britannique réalisée par Randall Miller, sortie en 2008.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inspiré d'une histoire vraie, ce film évoque les circonstances entourant le désormais célèbre « Jugement de Paris » aussi appelé « Dégustation de 1976 », où avait eu lieu une dégustation de vin à l'aveugle, comparant des vins de France à des vins de Californie, événement majeur qui entraîna la reconnaissance mondiale de la grande valeur des vins californiens.
 À cette époque, l'œnologue Steven Spurrier, d'origine britannique, ne jurait que par les vins français. Installé à Paris, il y tenait une boutique de vins et y avait fondé l'académie du vin où il offrait des cours sur l'appréciation du vin.
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Bottle Shock
 Titre québécois : Dégustation choc
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chris Pine (VQ : Jean-François Beaupré) : Bo Barrett
 Alan Rickman (VQ : Jacques Lavallée) : Steven Spurrier
@@ -638,7 +656,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival international du film de Seattle 2008 : prix du meilleur acteur pour Alan Rickman</t>
         </is>
@@ -668,7 +688,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semblerait que le véritable Steven Spurrier, représenté dans le film par Alan Rickman, aurait averti la production qu'il intenterait des recours judiciaires, s'il était mal représenté dans ce film. Ayant lu le script, il aurait dit « There is hardly a word that is true in the script and many, many pure inventions as far as I am concerned »" (Il y a à peine un mot de vrai dans le script et beaucoup, beaucoup de pures inventions en ce qui me concerne).
 </t>
